--- a/raw_data/umd/2023/RL_2023-08-07_SBay2.xlsx
+++ b/raw_data/umd/2023/RL_2023-08-07_SBay2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/08_07_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88F2D082-B514-D244-AD49-89E7D47E6088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAE6D79-A7C0-4C48-AE57-13CF1EAD843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="2820" windowWidth="26440" windowHeight="15440" xr2:uid="{0480403D-B920-5442-8A71-006833A653AB}"/>
   </bookViews>
@@ -20,46 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = SBay2</t>
-  </si>
-  <si>
-    <t>Location ID = cdec9030-30bd-4ddd-a152-b63caca6676c</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-08-07 11:56:54</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:00:49</t>
-  </si>
-  <si>
-    <t>Readings = 50</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -120,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -627,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1005,9 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045A0EA5-3E3E-DC40-BD0F-C97884BD83DC}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1031,1812 +994,2753 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45145.497847222221</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9.7934579999999993</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5.2571479999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>83.39743</v>
+      </c>
+      <c r="E2" s="3">
+        <v>102.3403</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.7825390000000002E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99909150000000002</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6.6526080000000001E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.14837</v>
+      </c>
+      <c r="J2" s="3">
+        <v>15.40225</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.1815051</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.039191</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.12944939999999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.99143999999999999</v>
+      </c>
+      <c r="O2" s="3">
+        <v>991.64959999999996</v>
+      </c>
+      <c r="P2" s="3">
+        <v>46.889656250000002</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-91.115267880000005</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45145.497858796298</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9.6415889999999997</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.6507870000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>83.40558</v>
+      </c>
+      <c r="E3" s="3">
+        <v>102.4712</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.7886739999999997E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99909930000000002</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6.6609080000000001E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.58097169999999998</v>
+      </c>
+      <c r="J3" s="3">
+        <v>15.269579999999999</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.23035710000000001</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.1581060000000001</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.16301769999999999</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.98349169999999997</v>
+      </c>
+      <c r="O3" s="3">
+        <v>991.64940000000001</v>
+      </c>
+      <c r="P3" s="3">
+        <v>46.889656250000002</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-91.115267880000005</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45145.497870370367</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9.6353480000000005</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.6727489999999996</v>
+      </c>
+      <c r="D4" s="3">
+        <v>83.407110000000003</v>
+      </c>
+      <c r="E4" s="3">
+        <v>102.4883</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.789479E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99910030000000005</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.6618189999999994E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.60630819999999996</v>
+      </c>
+      <c r="J4" s="3">
+        <v>15.26066</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.23375019999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.1638839999999999</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.16463559999999999</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.98289230000000005</v>
+      </c>
+      <c r="O4" s="3">
+        <v>991.64970000000005</v>
+      </c>
+      <c r="P4" s="3">
+        <v>46.889656250000002</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-91.115267880000005</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45145.497881944444</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9.6291069999999994</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.6947099999999997</v>
+      </c>
+      <c r="D5" s="3">
+        <v>83.408649999999994</v>
+      </c>
+      <c r="E5" s="3">
+        <v>102.5055</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.7902849999999997E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99910129999999997</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6.6627309999999995E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.63164469999999995</v>
+      </c>
+      <c r="J5" s="3">
+        <v>15.25174</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.2371432</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.169662</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.1662534</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.98229279999999997</v>
+      </c>
+      <c r="O5" s="3">
+        <v>991.64980000000003</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46.889664439999997</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-91.115260559999996</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45145.497893518521</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9.6774979999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.8412550000000003</v>
+      </c>
+      <c r="D6" s="3">
+        <v>83.313400000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>102.5382</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.7916220000000002E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99912199999999995</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6.6782400000000006E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.36310140000000002</v>
+      </c>
+      <c r="J6" s="3">
+        <v>15.186669999999999</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.46562249999999999</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.67618</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.32736520000000002</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.99011199999999999</v>
+      </c>
+      <c r="O6" s="3">
+        <v>991.64089999999999</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46.889664439999997</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-91.115260559999996</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45145.49790509259</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9.6769359999999995</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.8580500000000004</v>
+      </c>
+      <c r="D7" s="3">
+        <v>83.308400000000006</v>
+      </c>
+      <c r="E7" s="3">
+        <v>102.5432</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.7918469999999998E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99912339999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6.6792959999999998E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.35787469999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>15.180070000000001</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.47925109999999999</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.7065950000000001</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.3369471</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.99036550000000001</v>
+      </c>
+      <c r="O7" s="3">
+        <v>991.6404</v>
+      </c>
+      <c r="P7" s="3">
+        <v>46.889664439999997</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-91.115260559999996</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45145.497916666667</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9.6763739999999991</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.8748440000000004</v>
+      </c>
+      <c r="D8" s="3">
+        <v>83.30341</v>
+      </c>
+      <c r="E8" s="3">
+        <v>102.5483</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.792072E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99912469999999998</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.6803509999999997E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.35264800000000002</v>
+      </c>
+      <c r="J8" s="3">
+        <v>15.17347</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.49287959999999997</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.7370099999999999</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.34652889999999997</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.99061900000000003</v>
+      </c>
+      <c r="O8" s="3">
+        <v>991.64</v>
+      </c>
+      <c r="P8" s="3">
+        <v>46.889664439999997</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-91.115260559999996</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45145.497928240744</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.5011550000000007</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6.025703</v>
+      </c>
+      <c r="D9" s="3">
+        <v>82.690960000000004</v>
+      </c>
+      <c r="E9" s="3">
+        <v>102.25530000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.7771300000000003E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99914259999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6.6482070000000004E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.13008510000000001</v>
+      </c>
+      <c r="J9" s="3">
+        <v>15.10228</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.99625529999999995</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2.8936160000000002</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.70043719999999998</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.98295589999999999</v>
+      </c>
+      <c r="O9" s="3">
+        <v>991.63130000000001</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.889664439999997</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-91.115260559999996</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45145.497939814813</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9.4928519999999992</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6.0373169999999998</v>
+      </c>
+      <c r="D10" s="3">
+        <v>82.655850000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>102.2405</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.7763659999999999E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99914409999999998</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6.6468479999999996E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1120188</v>
+      </c>
+      <c r="J10" s="3">
+        <v>15.09689</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.02864</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2.9675639999999999</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.72320589999999996</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.98272110000000001</v>
+      </c>
+      <c r="O10" s="3">
+        <v>991.63059999999996</v>
+      </c>
+      <c r="P10" s="3">
+        <v>46.889664439999997</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-91.115260559999996</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45145.49795138889</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.4845489999999995</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.0489309999999996</v>
+      </c>
+      <c r="D11" s="3">
+        <v>82.620739999999998</v>
+      </c>
+      <c r="E11" s="3">
+        <v>102.2257</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.7756020000000003E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99914559999999997</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.6454890000000003E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9.3952560000000004E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>15.09149</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.0610250000000001</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3.0415109999999999</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.74597449999999998</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.98248639999999998</v>
+      </c>
+      <c r="O11" s="3">
+        <v>991.62990000000002</v>
+      </c>
+      <c r="P11" s="3">
+        <v>46.889664439999997</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-91.115260559999996</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45145.49796296296</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9.8243869999999998</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6.1817979999999997</v>
+      </c>
+      <c r="D12" s="3">
+        <v>82.330460000000002</v>
+      </c>
+      <c r="E12" s="3">
+        <v>102.34610000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.7805859999999999E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99917469999999997</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6.6529099999999994E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.3122431</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14.774710000000001</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.4744619999999999</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4.0125909999999996</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1.0366500000000001</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.98224579999999995</v>
+      </c>
+      <c r="O12" s="3">
+        <v>991.56889999999999</v>
+      </c>
+      <c r="P12" s="3">
+        <v>46.889664439999997</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-91.115260559999996</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45145.497974537036</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9.8389150000000001</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.1925929999999996</v>
+      </c>
+      <c r="D13" s="3">
+        <v>82.300979999999996</v>
+      </c>
+      <c r="E13" s="3">
+        <v>102.34610000000001</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.7805260000000002E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99917670000000003</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6.6526100000000005E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.31902380000000002</v>
+      </c>
+      <c r="J13" s="3">
+        <v>14.755850000000001</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.508313</v>
+      </c>
+      <c r="L13" s="3">
+        <v>4.0915030000000003</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.0604499999999999</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.98206590000000005</v>
+      </c>
+      <c r="O13" s="3">
+        <v>991.56539999999995</v>
+      </c>
+      <c r="P13" s="3">
+        <v>46.889664439999997</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-91.115260559999996</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45145.497986111113</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9.8534430000000004</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6.2033880000000003</v>
+      </c>
+      <c r="D14" s="3">
+        <v>82.271500000000003</v>
+      </c>
+      <c r="E14" s="3">
+        <v>102.3462</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.7804659999999999E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99917880000000003</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6.6523100000000002E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.32580439999999999</v>
+      </c>
+      <c r="J14" s="3">
+        <v>14.73699</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.5421640000000001</v>
+      </c>
+      <c r="L14" s="3">
+        <v>4.1704160000000003</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.084249</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.98188600000000004</v>
+      </c>
+      <c r="O14" s="3">
+        <v>991.56190000000004</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46.889664439999997</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-91.115260559999996</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45145.497997685183</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9.8002599999999997</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.538443</v>
+      </c>
+      <c r="D15" s="3">
+        <v>82.200339999999997</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100.95229999999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.7111720000000003E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99924020000000002</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.5618960000000004E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.30684359999999999</v>
+      </c>
+      <c r="J15" s="3">
+        <v>14.58881</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3.4356140000000002</v>
+      </c>
+      <c r="L15" s="3">
+        <v>8.5256170000000004</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2.4154779999999998</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="O15" s="3">
+        <v>991.55259999999998</v>
+      </c>
+      <c r="P15" s="3">
+        <v>46.889671890000002</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-91.11525245</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45145.49800925926</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9.8050289999999993</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.5598039999999997</v>
+      </c>
+      <c r="D16" s="3">
+        <v>82.189539999999994</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100.87909999999999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.707513E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99924420000000003</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.5571409999999997E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.31056339999999999</v>
+      </c>
+      <c r="J16" s="3">
+        <v>14.57349</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3.5482629999999999</v>
+      </c>
+      <c r="L16" s="3">
+        <v>8.7851730000000003</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2.4946769999999998</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="O16" s="3">
+        <v>991.55070000000001</v>
+      </c>
+      <c r="P16" s="3">
+        <v>46.889671890000002</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-91.11525245</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45145.498020833336</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.8097989999999999</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6.5811669999999998</v>
+      </c>
+      <c r="D17" s="3">
+        <v>82.178730000000002</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100.80589999999999</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.7038530000000002E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99924829999999998</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.5523860000000003E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.31428309999999998</v>
+      </c>
+      <c r="J17" s="3">
+        <v>14.55818</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3.660911</v>
+      </c>
+      <c r="L17" s="3">
+        <v>9.0447290000000002</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2.573877</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="O17" s="3">
+        <v>991.54880000000003</v>
+      </c>
+      <c r="P17" s="3">
+        <v>46.889676469999998</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-91.115238669999997</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4">
+        <v>45145.498032407406</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9.8320559999999997</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6.8802399999999997</v>
+      </c>
+      <c r="D18" s="3">
+        <v>77.992710000000002</v>
+      </c>
+      <c r="E18" s="3">
+        <v>99.510919999999999</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.6378280000000001E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.99934290000000003</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.4682100000000006E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.27106259999999999</v>
+      </c>
+      <c r="J18" s="3">
+        <v>13.58811</v>
+      </c>
+      <c r="K18" s="3">
+        <v>4.3049419999999996</v>
+      </c>
+      <c r="L18" s="3">
+        <v>10.533469999999999</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3.0266760000000001</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.96645760000000003</v>
+      </c>
+      <c r="O18" s="3">
+        <v>991.56719999999996</v>
+      </c>
+      <c r="P18" s="3">
+        <v>46.889676469999998</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-91.115238669999997</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4">
+        <v>45145.498043981483</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9.8321769999999997</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6.9038409999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>77.770970000000005</v>
+      </c>
+      <c r="E19" s="3">
+        <v>99.410669999999996</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.6327569999999998E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.9993493</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6.4616930000000003E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.26843689999999998</v>
+      </c>
+      <c r="J19" s="3">
+        <v>13.533519999999999</v>
+      </c>
+      <c r="K19" s="3">
+        <v>4.3830419999999997</v>
+      </c>
+      <c r="L19" s="3">
+        <v>10.713509999999999</v>
+      </c>
+      <c r="M19" s="3">
+        <v>3.081585</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.96564190000000005</v>
+      </c>
+      <c r="O19" s="3">
+        <v>991.56790000000001</v>
+      </c>
+      <c r="P19" s="3">
+        <v>46.889676469999998</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-91.115238669999997</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A20" s="4">
+        <v>45145.498055555552</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9.8322990000000008</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6.9274420000000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>77.549210000000002</v>
+      </c>
+      <c r="E20" s="3">
+        <v>99.310419999999993</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.6276860000000003E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99935569999999996</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.4551780000000003E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.26581120000000003</v>
+      </c>
+      <c r="J20" s="3">
+        <v>13.47893</v>
+      </c>
+      <c r="K20" s="3">
+        <v>4.4611419999999997</v>
+      </c>
+      <c r="L20" s="3">
+        <v>10.893549999999999</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3.136495</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.96482619999999997</v>
+      </c>
+      <c r="O20" s="3">
+        <v>991.56870000000004</v>
+      </c>
+      <c r="P20" s="3">
+        <v>46.889682479999998</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-91.115222860000003</v>
+      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>45145.497847222221</v>
+        <v>45145.498067129629</v>
       </c>
       <c r="B21" s="3">
-        <v>9.7934579999999993</v>
+        <v>9.9212059999999997</v>
       </c>
       <c r="C21" s="3">
-        <v>5.2571479999999999</v>
+        <v>7.0042530000000003</v>
       </c>
       <c r="D21" s="3">
-        <v>83.39743</v>
+        <v>75.654259999999994</v>
       </c>
       <c r="E21" s="3">
-        <v>102.3403</v>
+        <v>98.299449999999993</v>
       </c>
       <c r="F21" s="3">
-        <v>4.7825390000000002E-2</v>
+        <v>4.5757920000000001E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>0.99909150000000002</v>
+        <v>0.999475</v>
       </c>
       <c r="H21" s="3">
-        <v>6.6526080000000001E-2</v>
+        <v>6.3921220000000001E-2</v>
       </c>
       <c r="I21" s="3">
-        <v>0.14837</v>
+        <v>0.44815349999999998</v>
       </c>
       <c r="J21" s="3">
-        <v>15.40225</v>
+        <v>12.91315</v>
       </c>
       <c r="K21" s="3">
-        <v>0.1815051</v>
+        <v>5.7940670000000001</v>
       </c>
       <c r="L21" s="3">
-        <v>1.039191</v>
+        <v>13.96547</v>
       </c>
       <c r="M21" s="3">
-        <v>0.12944939999999999</v>
+        <v>4.0736350000000003</v>
       </c>
       <c r="N21" s="3">
-        <v>0.99143999999999999</v>
+        <v>0.94884100000000005</v>
       </c>
       <c r="O21" s="3">
-        <v>991.64959999999996</v>
+        <v>991.55160000000001</v>
       </c>
       <c r="P21" s="3">
-        <v>46.889656250000002</v>
+        <v>46.889682479999998</v>
       </c>
       <c r="Q21" s="3">
-        <v>-91.115267880000005</v>
+        <v>-91.115222860000003</v>
       </c>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>45145.497858796298</v>
+        <v>45145.498078703706</v>
       </c>
       <c r="B22" s="3">
-        <v>9.6415889999999997</v>
+        <v>9.9265740000000005</v>
       </c>
       <c r="C22" s="3">
-        <v>5.6507870000000002</v>
+        <v>7.0151560000000002</v>
       </c>
       <c r="D22" s="3">
-        <v>83.40558</v>
+        <v>75.461759999999998</v>
       </c>
       <c r="E22" s="3">
-        <v>102.4712</v>
+        <v>98.215860000000006</v>
       </c>
       <c r="F22" s="3">
-        <v>4.7886739999999997E-2</v>
+        <v>4.5715119999999998E-2</v>
       </c>
       <c r="G22" s="3">
-        <v>0.99909930000000002</v>
+        <v>0.99948349999999997</v>
       </c>
       <c r="H22" s="3">
-        <v>6.6609080000000001E-2</v>
+        <v>6.3868320000000006E-2</v>
       </c>
       <c r="I22" s="3">
-        <v>0.58097169999999998</v>
+        <v>0.45715319999999998</v>
       </c>
       <c r="J22" s="3">
-        <v>15.269579999999999</v>
+        <v>12.86149</v>
       </c>
       <c r="K22" s="3">
-        <v>0.23035710000000001</v>
+        <v>5.8817310000000003</v>
       </c>
       <c r="L22" s="3">
-        <v>1.1581060000000001</v>
+        <v>14.167590000000001</v>
       </c>
       <c r="M22" s="3">
-        <v>0.16301769999999999</v>
+        <v>4.1352679999999999</v>
       </c>
       <c r="N22" s="3">
-        <v>0.98349169999999997</v>
+        <v>0.94764269999999995</v>
       </c>
       <c r="O22" s="3">
-        <v>991.64940000000001</v>
+        <v>991.55100000000004</v>
       </c>
       <c r="P22" s="3">
-        <v>46.889656250000002</v>
+        <v>46.889682479999998</v>
       </c>
       <c r="Q22" s="3">
-        <v>-91.115267880000005</v>
+        <v>-91.115222860000003</v>
       </c>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45145.497870370367</v>
+        <v>45145.498090277775</v>
       </c>
       <c r="B23" s="3">
-        <v>9.6353480000000005</v>
+        <v>9.9319430000000004</v>
       </c>
       <c r="C23" s="3">
-        <v>5.6727489999999996</v>
+        <v>7.0260590000000001</v>
       </c>
       <c r="D23" s="3">
-        <v>83.407110000000003</v>
+        <v>75.269260000000003</v>
       </c>
       <c r="E23" s="3">
-        <v>102.4883</v>
+        <v>98.132260000000002</v>
       </c>
       <c r="F23" s="3">
-        <v>4.789479E-2</v>
+        <v>4.5672320000000002E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99910030000000005</v>
+        <v>0.99949209999999999</v>
       </c>
       <c r="H23" s="3">
-        <v>6.6618189999999994E-2</v>
+        <v>6.3815419999999998E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>0.60630819999999996</v>
+        <v>0.46615299999999998</v>
       </c>
       <c r="J23" s="3">
-        <v>15.26066</v>
+        <v>12.80982</v>
       </c>
       <c r="K23" s="3">
-        <v>0.23375019999999999</v>
+        <v>5.9693940000000003</v>
       </c>
       <c r="L23" s="3">
-        <v>1.1638839999999999</v>
+        <v>14.369719999999999</v>
       </c>
       <c r="M23" s="3">
-        <v>0.16463559999999999</v>
+        <v>4.1969019999999997</v>
       </c>
       <c r="N23" s="3">
-        <v>0.98289230000000005</v>
+        <v>0.94644450000000002</v>
       </c>
       <c r="O23" s="3">
-        <v>991.64970000000005</v>
+        <v>991.55050000000006</v>
       </c>
       <c r="P23" s="3">
-        <v>46.889656250000002</v>
+        <v>46.889686810000001</v>
       </c>
       <c r="Q23" s="3">
-        <v>-91.115267880000005</v>
+        <v>-91.115208670000001</v>
       </c>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45145.497881944444</v>
+        <v>45145.498101851852</v>
       </c>
       <c r="B24" s="3">
-        <v>9.6291069999999994</v>
+        <v>9.9732280000000006</v>
       </c>
       <c r="C24" s="3">
-        <v>5.6947099999999997</v>
+        <v>7.1818759999999999</v>
       </c>
       <c r="D24" s="3">
-        <v>83.408649999999994</v>
+        <v>73.525899999999993</v>
       </c>
       <c r="E24" s="3">
-        <v>102.5055</v>
+        <v>97.832999999999998</v>
       </c>
       <c r="F24" s="3">
-        <v>4.7902849999999997E-2</v>
+        <v>4.5476040000000002E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99910129999999997</v>
+        <v>0.99954180000000004</v>
       </c>
       <c r="H24" s="3">
-        <v>6.6627309999999995E-2</v>
+        <v>6.3595009999999993E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>0.63164469999999995</v>
+        <v>0.45985359999999997</v>
       </c>
       <c r="J24" s="3">
-        <v>15.25174</v>
+        <v>12.427479999999999</v>
       </c>
       <c r="K24" s="3">
-        <v>0.2371432</v>
+        <v>6.6637760000000004</v>
       </c>
       <c r="L24" s="3">
-        <v>1.169662</v>
+        <v>15.969580000000001</v>
       </c>
       <c r="M24" s="3">
-        <v>0.1662534</v>
+        <v>4.6851010000000004</v>
       </c>
       <c r="N24" s="3">
-        <v>0.98229279999999997</v>
+        <v>0.94653830000000005</v>
       </c>
       <c r="O24" s="3">
-        <v>991.64980000000003</v>
+        <v>991.55020000000002</v>
       </c>
       <c r="P24" s="3">
-        <v>46.889664439999997</v>
+        <v>46.889686810000001</v>
       </c>
       <c r="Q24" s="3">
-        <v>-91.115260559999996</v>
+        <v>-91.115208670000001</v>
       </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45145.497893518521</v>
+        <v>45145.498113425929</v>
       </c>
       <c r="B25" s="3">
-        <v>9.6774979999999999</v>
+        <v>9.9773859999999992</v>
       </c>
       <c r="C25" s="3">
-        <v>5.8412550000000003</v>
+        <v>7.1918699999999998</v>
       </c>
       <c r="D25" s="3">
-        <v>83.313400000000001</v>
+        <v>73.39161</v>
       </c>
       <c r="E25" s="3">
-        <v>102.5382</v>
+        <v>97.793620000000004</v>
       </c>
       <c r="F25" s="3">
-        <v>4.7916220000000002E-2</v>
+        <v>4.5453630000000002E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>0.99912199999999995</v>
+        <v>0.99954719999999997</v>
       </c>
       <c r="H25" s="3">
-        <v>6.6782400000000006E-2</v>
+        <v>6.3568689999999997E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>0.36310140000000002</v>
+        <v>0.46369460000000001</v>
       </c>
       <c r="J25" s="3">
-        <v>15.186669999999999</v>
+        <v>12.39453</v>
       </c>
       <c r="K25" s="3">
-        <v>0.46562249999999999</v>
+        <v>6.7310939999999997</v>
       </c>
       <c r="L25" s="3">
-        <v>1.67618</v>
+        <v>16.124700000000001</v>
       </c>
       <c r="M25" s="3">
-        <v>0.32736520000000002</v>
+        <v>4.7324299999999999</v>
       </c>
       <c r="N25" s="3">
-        <v>0.99011199999999999</v>
+        <v>0.94617459999999998</v>
       </c>
       <c r="O25" s="3">
-        <v>991.64089999999999</v>
+        <v>991.5498</v>
       </c>
       <c r="P25" s="3">
-        <v>46.889664439999997</v>
+        <v>46.889686810000001</v>
       </c>
       <c r="Q25" s="3">
-        <v>-91.115260559999996</v>
+        <v>-91.115208670000001</v>
       </c>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45145.49790509259</v>
+        <v>45145.498124999998</v>
       </c>
       <c r="B26" s="3">
-        <v>9.6769359999999995</v>
+        <v>9.9815439999999995</v>
       </c>
       <c r="C26" s="3">
-        <v>5.8580500000000004</v>
+        <v>7.2018649999999997</v>
       </c>
       <c r="D26" s="3">
-        <v>83.308400000000006</v>
+        <v>73.257320000000007</v>
       </c>
       <c r="E26" s="3">
-        <v>102.5432</v>
+        <v>97.754260000000002</v>
       </c>
       <c r="F26" s="3">
-        <v>4.7918469999999998E-2</v>
+        <v>4.5431220000000001E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99912339999999999</v>
+        <v>0.99955249999999995</v>
       </c>
       <c r="H26" s="3">
-        <v>6.6792959999999998E-2</v>
+        <v>6.3542370000000001E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>0.35787469999999999</v>
+        <v>0.4675356</v>
       </c>
       <c r="J26" s="3">
-        <v>15.180070000000001</v>
+        <v>12.36158</v>
       </c>
       <c r="K26" s="3">
-        <v>0.47925109999999999</v>
+        <v>6.7984119999999999</v>
       </c>
       <c r="L26" s="3">
-        <v>1.7065950000000001</v>
+        <v>16.279820000000001</v>
       </c>
       <c r="M26" s="3">
-        <v>0.3369471</v>
+        <v>4.7797599999999996</v>
       </c>
       <c r="N26" s="3">
-        <v>0.99036550000000001</v>
+        <v>0.94581090000000001</v>
       </c>
       <c r="O26" s="3">
-        <v>991.6404</v>
+        <v>991.54939999999999</v>
       </c>
       <c r="P26" s="3">
-        <v>46.889664439999997</v>
+        <v>46.889686810000001</v>
       </c>
       <c r="Q26" s="3">
-        <v>-91.115260559999996</v>
+        <v>-91.115208670000001</v>
       </c>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45145.497916666667</v>
+        <v>45145.498136574075</v>
       </c>
       <c r="B27" s="3">
-        <v>9.6763739999999991</v>
+        <v>9.9723500000000005</v>
       </c>
       <c r="C27" s="3">
-        <v>5.8748440000000004</v>
+        <v>7.4368509999999999</v>
       </c>
       <c r="D27" s="3">
-        <v>83.30341</v>
+        <v>72.619879999999995</v>
       </c>
       <c r="E27" s="3">
-        <v>102.5483</v>
+        <v>97.770570000000006</v>
       </c>
       <c r="F27" s="3">
-        <v>4.792072E-2</v>
+        <v>4.5414700000000002E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99912469999999998</v>
+        <v>0.99962629999999997</v>
       </c>
       <c r="H27" s="3">
-        <v>6.6803509999999997E-2</v>
+        <v>6.3447959999999998E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>0.35264800000000002</v>
+        <v>0.58106449999999998</v>
       </c>
       <c r="J27" s="3">
-        <v>15.17347</v>
+        <v>11.594989999999999</v>
       </c>
       <c r="K27" s="3">
-        <v>0.49287959999999997</v>
+        <v>8.0836839999999999</v>
       </c>
       <c r="L27" s="3">
-        <v>1.7370099999999999</v>
+        <v>19.250640000000001</v>
       </c>
       <c r="M27" s="3">
-        <v>0.34652889999999997</v>
+        <v>5.6833960000000001</v>
       </c>
       <c r="N27" s="3">
-        <v>0.99061900000000003</v>
+        <v>0.92340719999999998</v>
       </c>
       <c r="O27" s="3">
-        <v>991.64</v>
+        <v>991.57479999999998</v>
       </c>
       <c r="P27" s="3">
-        <v>46.889664439999997</v>
+        <v>46.889686810000001</v>
       </c>
       <c r="Q27" s="3">
-        <v>-91.115260559999996</v>
+        <v>-91.115208670000001</v>
       </c>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45145.497928240744</v>
+        <v>45145.498148148145</v>
       </c>
       <c r="B28" s="3">
-        <v>9.5011550000000007</v>
+        <v>9.9728010000000005</v>
       </c>
       <c r="C28" s="3">
-        <v>6.025703</v>
+        <v>7.4522560000000002</v>
       </c>
       <c r="D28" s="3">
-        <v>82.690960000000004</v>
+        <v>72.548680000000004</v>
       </c>
       <c r="E28" s="3">
-        <v>102.25530000000001</v>
+        <v>97.764279999999999</v>
       </c>
       <c r="F28" s="3">
-        <v>4.7771300000000003E-2</v>
+        <v>4.5409310000000001E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99914259999999999</v>
+        <v>0.99963120000000005</v>
       </c>
       <c r="H28" s="3">
-        <v>6.6482070000000004E-2</v>
+        <v>6.3437980000000005E-2</v>
       </c>
       <c r="I28" s="3">
-        <v>0.13008510000000001</v>
+        <v>0.58682140000000005</v>
       </c>
       <c r="J28" s="3">
-        <v>15.10228</v>
+        <v>11.547230000000001</v>
       </c>
       <c r="K28" s="3">
-        <v>0.99625529999999995</v>
+        <v>8.164866</v>
       </c>
       <c r="L28" s="3">
-        <v>2.8936160000000002</v>
+        <v>19.43817</v>
       </c>
       <c r="M28" s="3">
-        <v>0.70043719999999998</v>
+        <v>5.7404719999999996</v>
       </c>
       <c r="N28" s="3">
-        <v>0.98295589999999999</v>
+        <v>0.92225199999999996</v>
       </c>
       <c r="O28" s="3">
-        <v>991.63130000000001</v>
+        <v>991.5761</v>
       </c>
       <c r="P28" s="3">
-        <v>46.889664439999997</v>
+        <v>46.889686810000001</v>
       </c>
       <c r="Q28" s="3">
-        <v>-91.115260559999996</v>
+        <v>-91.115208670000001</v>
       </c>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45145.497939814813</v>
+        <v>45145.498159722221</v>
       </c>
       <c r="B29" s="3">
-        <v>9.4928519999999992</v>
+        <v>9.9732520000000005</v>
       </c>
       <c r="C29" s="3">
-        <v>6.0373169999999998</v>
+        <v>7.4676600000000004</v>
       </c>
       <c r="D29" s="3">
-        <v>82.655850000000001</v>
+        <v>72.477469999999997</v>
       </c>
       <c r="E29" s="3">
-        <v>102.2405</v>
+        <v>97.757999999999996</v>
       </c>
       <c r="F29" s="3">
-        <v>4.7763659999999999E-2</v>
+        <v>4.540392E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>0.99914409999999998</v>
+        <v>0.99963610000000003</v>
       </c>
       <c r="H29" s="3">
-        <v>6.6468479999999996E-2</v>
+        <v>6.3427990000000004E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>0.1120188</v>
+        <v>0.5925783</v>
       </c>
       <c r="J29" s="3">
-        <v>15.09689</v>
+        <v>11.49948</v>
       </c>
       <c r="K29" s="3">
-        <v>1.02864</v>
+        <v>8.2460489999999993</v>
       </c>
       <c r="L29" s="3">
-        <v>2.9675639999999999</v>
+        <v>19.625710000000002</v>
       </c>
       <c r="M29" s="3">
-        <v>0.72320589999999996</v>
+        <v>5.7975490000000001</v>
       </c>
       <c r="N29" s="3">
-        <v>0.98272110000000001</v>
+        <v>0.92109680000000005</v>
       </c>
       <c r="O29" s="3">
-        <v>991.63059999999996</v>
+        <v>991.57740000000001</v>
       </c>
       <c r="P29" s="3">
-        <v>46.889664439999997</v>
+        <v>46.889688640000003</v>
       </c>
       <c r="Q29" s="3">
-        <v>-91.115260559999996</v>
+        <v>-91.11519509</v>
       </c>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45145.49795138889</v>
+        <v>45145.498171296298</v>
       </c>
       <c r="B30" s="3">
-        <v>9.4845489999999995</v>
+        <v>9.8724290000000003</v>
       </c>
       <c r="C30" s="3">
-        <v>6.0489309999999996</v>
+        <v>7.6152860000000002</v>
       </c>
       <c r="D30" s="3">
-        <v>82.620739999999998</v>
+        <v>71.433239999999998</v>
       </c>
       <c r="E30" s="3">
-        <v>102.2257</v>
+        <v>97.970590000000001</v>
       </c>
       <c r="F30" s="3">
-        <v>4.7756020000000003E-2</v>
+        <v>4.545718E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99914559999999997</v>
+        <v>0.9996659</v>
       </c>
       <c r="H30" s="3">
-        <v>6.6454890000000003E-2</v>
+        <v>6.3665970000000002E-2</v>
       </c>
       <c r="I30" s="3">
-        <v>9.3952560000000004E-2</v>
+        <v>0.73145380000000004</v>
       </c>
       <c r="J30" s="3">
-        <v>15.09149</v>
+        <v>11.10955</v>
       </c>
       <c r="K30" s="3">
-        <v>1.0610250000000001</v>
+        <v>8.8966259999999995</v>
       </c>
       <c r="L30" s="3">
-        <v>3.0415109999999999</v>
+        <v>21.12133</v>
       </c>
       <c r="M30" s="3">
-        <v>0.74597449999999998</v>
+        <v>6.2549510000000001</v>
       </c>
       <c r="N30" s="3">
-        <v>0.98248639999999998</v>
+        <v>0.89761230000000003</v>
       </c>
       <c r="O30" s="3">
-        <v>991.62990000000002</v>
+        <v>991.55319999999995</v>
       </c>
       <c r="P30" s="3">
-        <v>46.889664439999997</v>
+        <v>46.889688640000003</v>
       </c>
       <c r="Q30" s="3">
-        <v>-91.115260559999996</v>
+        <v>-91.11519509</v>
       </c>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45145.49796296296</v>
+        <v>45145.498182870368</v>
       </c>
       <c r="B31" s="3">
-        <v>9.8243869999999998</v>
+        <v>9.866873</v>
       </c>
       <c r="C31" s="3">
-        <v>6.1817979999999997</v>
+        <v>7.6277309999999998</v>
       </c>
       <c r="D31" s="3">
-        <v>82.330460000000002</v>
+        <v>71.365520000000004</v>
       </c>
       <c r="E31" s="3">
-        <v>102.34610000000001</v>
+        <v>97.982169999999996</v>
       </c>
       <c r="F31" s="3">
-        <v>4.7805859999999999E-2</v>
+        <v>4.5459670000000001E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99917469999999997</v>
+        <v>0.99966900000000003</v>
       </c>
       <c r="H31" s="3">
-        <v>6.6529099999999994E-2</v>
+        <v>6.3676759999999999E-2</v>
       </c>
       <c r="I31" s="3">
-        <v>0.3122431</v>
+        <v>0.741147</v>
       </c>
       <c r="J31" s="3">
-        <v>14.774710000000001</v>
+        <v>11.073689999999999</v>
       </c>
       <c r="K31" s="3">
-        <v>1.4744619999999999</v>
+        <v>8.9566549999999996</v>
       </c>
       <c r="L31" s="3">
-        <v>4.0125909999999996</v>
+        <v>21.259650000000001</v>
       </c>
       <c r="M31" s="3">
-        <v>1.0366500000000001</v>
+        <v>6.2971550000000001</v>
       </c>
       <c r="N31" s="3">
-        <v>0.98224579999999995</v>
+        <v>0.89591410000000005</v>
       </c>
       <c r="O31" s="3">
-        <v>991.56889999999999</v>
+        <v>991.55240000000003</v>
       </c>
       <c r="P31" s="3">
-        <v>46.889664439999997</v>
+        <v>46.889688640000003</v>
       </c>
       <c r="Q31" s="3">
-        <v>-91.115260559999996</v>
+        <v>-91.11519509</v>
       </c>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45145.497974537036</v>
+        <v>45145.498194444444</v>
       </c>
       <c r="B32" s="3">
-        <v>9.8389150000000001</v>
+        <v>9.8613169999999997</v>
       </c>
       <c r="C32" s="3">
-        <v>6.1925929999999996</v>
+        <v>7.6401770000000004</v>
       </c>
       <c r="D32" s="3">
-        <v>82.300979999999996</v>
+        <v>71.297790000000006</v>
       </c>
       <c r="E32" s="3">
-        <v>102.34610000000001</v>
+        <v>97.993740000000003</v>
       </c>
       <c r="F32" s="3">
-        <v>4.7805260000000002E-2</v>
+        <v>4.5462170000000003E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99917670000000003</v>
+        <v>0.99967200000000001</v>
       </c>
       <c r="H32" s="3">
-        <v>6.6526100000000005E-2</v>
+        <v>6.3687549999999996E-2</v>
       </c>
       <c r="I32" s="3">
-        <v>0.31902380000000002</v>
+        <v>0.75084010000000001</v>
       </c>
       <c r="J32" s="3">
-        <v>14.755850000000001</v>
+        <v>11.037839999999999</v>
       </c>
       <c r="K32" s="3">
-        <v>1.508313</v>
+        <v>9.0166819999999994</v>
       </c>
       <c r="L32" s="3">
-        <v>4.0915030000000003</v>
+        <v>21.397960000000001</v>
       </c>
       <c r="M32" s="3">
-        <v>1.0604499999999999</v>
+        <v>6.3393579999999998</v>
       </c>
       <c r="N32" s="3">
-        <v>0.98206590000000005</v>
+        <v>0.89421589999999995</v>
       </c>
       <c r="O32" s="3">
-        <v>991.56539999999995</v>
+        <v>991.55160000000001</v>
       </c>
       <c r="P32" s="3">
-        <v>46.889664439999997</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q32" s="3">
-        <v>-91.115260559999996</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45145.497986111113</v>
+        <v>45145.498206018521</v>
       </c>
       <c r="B33" s="3">
-        <v>9.8534430000000004</v>
+        <v>9.8557600000000001</v>
       </c>
       <c r="C33" s="3">
-        <v>6.2033880000000003</v>
+        <v>7.652622</v>
       </c>
       <c r="D33" s="3">
-        <v>82.271500000000003</v>
+        <v>71.230059999999995</v>
       </c>
       <c r="E33" s="3">
-        <v>102.3462</v>
+        <v>98.005330000000001</v>
       </c>
       <c r="F33" s="3">
-        <v>4.7804659999999999E-2</v>
+        <v>4.5464669999999999E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99917880000000003</v>
+        <v>0.99967499999999998</v>
       </c>
       <c r="H33" s="3">
-        <v>6.6523100000000002E-2</v>
+        <v>6.3698340000000006E-2</v>
       </c>
       <c r="I33" s="3">
-        <v>0.32580439999999999</v>
+        <v>0.76053329999999997</v>
       </c>
       <c r="J33" s="3">
-        <v>14.73699</v>
+        <v>11.00198</v>
       </c>
       <c r="K33" s="3">
-        <v>1.5421640000000001</v>
+        <v>9.0767100000000003</v>
       </c>
       <c r="L33" s="3">
-        <v>4.1704160000000003</v>
+        <v>21.536280000000001</v>
       </c>
       <c r="M33" s="3">
-        <v>1.084249</v>
+        <v>6.3815619999999997</v>
       </c>
       <c r="N33" s="3">
-        <v>0.98188600000000004</v>
+        <v>0.89251769999999997</v>
       </c>
       <c r="O33" s="3">
-        <v>991.56190000000004</v>
+        <v>991.55079999999998</v>
       </c>
       <c r="P33" s="3">
-        <v>46.889664439999997</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q33" s="3">
-        <v>-91.115260559999996</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45145.497997685183</v>
+        <v>45145.498217592591</v>
       </c>
       <c r="B34" s="3">
-        <v>9.8002599999999997</v>
+        <v>10.032</v>
       </c>
       <c r="C34" s="3">
-        <v>6.538443</v>
+        <v>8.2026140000000005</v>
       </c>
       <c r="D34" s="3">
-        <v>82.200339999999997</v>
+        <v>70.988650000000007</v>
       </c>
       <c r="E34" s="3">
-        <v>100.95229999999999</v>
+        <v>98.280630000000002</v>
       </c>
       <c r="F34" s="3">
-        <v>4.7111720000000003E-2</v>
+        <v>4.5577579999999999E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99924020000000002</v>
+        <v>0.99969680000000005</v>
       </c>
       <c r="H34" s="3">
-        <v>6.5618960000000004E-2</v>
+        <v>6.3884150000000001E-2</v>
       </c>
       <c r="I34" s="3">
-        <v>0.30684359999999999</v>
+        <v>0.71886499999999998</v>
       </c>
       <c r="J34" s="3">
-        <v>14.58881</v>
+        <v>10.48953</v>
       </c>
       <c r="K34" s="3">
-        <v>3.4356140000000002</v>
+        <v>9.8421839999999996</v>
       </c>
       <c r="L34" s="3">
-        <v>8.5256170000000004</v>
+        <v>25.159659999999999</v>
       </c>
       <c r="M34" s="3">
-        <v>2.4154779999999998</v>
+        <v>7.4859739999999997</v>
       </c>
       <c r="N34" s="3">
-        <v>0.98199999999999998</v>
+        <v>0.884606</v>
       </c>
       <c r="O34" s="3">
-        <v>991.55259999999998</v>
+        <v>991.5059</v>
       </c>
       <c r="P34" s="3">
-        <v>46.889671890000002</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q34" s="3">
-        <v>-91.11525245</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45145.49800925926</v>
+        <v>45145.498229166667</v>
       </c>
       <c r="B35" s="3">
-        <v>9.8050289999999993</v>
+        <v>10.039</v>
       </c>
       <c r="C35" s="3">
-        <v>6.5598039999999997</v>
+        <v>8.2347249999999992</v>
       </c>
       <c r="D35" s="3">
-        <v>82.189539999999994</v>
+        <v>70.952839999999995</v>
       </c>
       <c r="E35" s="3">
-        <v>100.87909999999999</v>
+        <v>98.299840000000003</v>
       </c>
       <c r="F35" s="3">
-        <v>4.707513E-2</v>
+        <v>4.5584699999999999E-2</v>
       </c>
       <c r="G35" s="3">
-        <v>0.99924420000000003</v>
+        <v>0.99969859999999999</v>
       </c>
       <c r="H35" s="3">
-        <v>6.5571409999999997E-2</v>
+        <v>6.3899259999999999E-2</v>
       </c>
       <c r="I35" s="3">
-        <v>0.31056339999999999</v>
+        <v>0.71975979999999995</v>
       </c>
       <c r="J35" s="3">
-        <v>14.57349</v>
+        <v>10.454090000000001</v>
       </c>
       <c r="K35" s="3">
-        <v>3.5482629999999999</v>
+        <v>9.8966069999999995</v>
       </c>
       <c r="L35" s="3">
-        <v>8.7851730000000003</v>
+        <v>25.382580000000001</v>
       </c>
       <c r="M35" s="3">
-        <v>2.4946769999999998</v>
+        <v>7.5539540000000001</v>
       </c>
       <c r="N35" s="3">
-        <v>0.98199999999999998</v>
+        <v>0.88367039999999997</v>
       </c>
       <c r="O35" s="3">
-        <v>991.55070000000001</v>
+        <v>991.50300000000004</v>
       </c>
       <c r="P35" s="3">
-        <v>46.889671890000002</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q35" s="3">
-        <v>-91.11525245</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45145.498020833336</v>
+        <v>45145.498240740744</v>
       </c>
       <c r="B36" s="3">
-        <v>9.8097989999999999</v>
+        <v>10.04599</v>
       </c>
       <c r="C36" s="3">
-        <v>6.5811669999999998</v>
+        <v>8.2668350000000004</v>
       </c>
       <c r="D36" s="3">
-        <v>82.178730000000002</v>
+        <v>70.917019999999994</v>
       </c>
       <c r="E36" s="3">
-        <v>100.80589999999999</v>
+        <v>98.319050000000004</v>
       </c>
       <c r="F36" s="3">
-        <v>4.7038530000000002E-2</v>
+        <v>4.559183E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>0.99924829999999998</v>
+        <v>0.99970040000000004</v>
       </c>
       <c r="H36" s="3">
-        <v>6.5523860000000003E-2</v>
+        <v>6.3914360000000003E-2</v>
       </c>
       <c r="I36" s="3">
-        <v>0.31428309999999998</v>
+        <v>0.72065440000000003</v>
       </c>
       <c r="J36" s="3">
-        <v>14.55818</v>
+        <v>10.41865</v>
       </c>
       <c r="K36" s="3">
-        <v>3.660911</v>
+        <v>9.9510319999999997</v>
       </c>
       <c r="L36" s="3">
-        <v>9.0447290000000002</v>
+        <v>25.605499999999999</v>
       </c>
       <c r="M36" s="3">
-        <v>2.573877</v>
+        <v>7.6219349999999997</v>
       </c>
       <c r="N36" s="3">
-        <v>0.98199999999999998</v>
+        <v>0.88273469999999998</v>
       </c>
       <c r="O36" s="3">
-        <v>991.54880000000003</v>
+        <v>991.50009999999997</v>
       </c>
       <c r="P36" s="3">
-        <v>46.889676469999998</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q36" s="3">
-        <v>-91.115238669999997</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45145.498032407406</v>
+        <v>45145.498252314814</v>
       </c>
       <c r="B37" s="3">
-        <v>9.8320559999999997</v>
+        <v>9.8490500000000001</v>
       </c>
       <c r="C37" s="3">
-        <v>6.8802399999999997</v>
+        <v>8.1261650000000003</v>
       </c>
       <c r="D37" s="3">
-        <v>77.992710000000002</v>
+        <v>70.541430000000005</v>
       </c>
       <c r="E37" s="3">
-        <v>99.510919999999999</v>
+        <v>98.704480000000004</v>
       </c>
       <c r="F37" s="3">
-        <v>4.6378280000000001E-2</v>
+        <v>4.5746740000000001E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>0.99934290000000003</v>
+        <v>0.99973259999999997</v>
       </c>
       <c r="H37" s="3">
-        <v>6.4682100000000006E-2</v>
+        <v>6.4158469999999995E-2</v>
       </c>
       <c r="I37" s="3">
-        <v>0.27106259999999999</v>
+        <v>0.71536359999999999</v>
       </c>
       <c r="J37" s="3">
-        <v>13.58811</v>
+        <v>10.23081</v>
       </c>
       <c r="K37" s="3">
-        <v>4.3049419999999996</v>
+        <v>11.52933</v>
       </c>
       <c r="L37" s="3">
-        <v>10.533469999999999</v>
+        <v>27.42408</v>
       </c>
       <c r="M37" s="3">
-        <v>3.0266760000000001</v>
+        <v>8.1754809999999996</v>
       </c>
       <c r="N37" s="3">
-        <v>0.96645760000000003</v>
+        <v>0.87539889999999998</v>
       </c>
       <c r="O37" s="3">
-        <v>991.56719999999996</v>
+        <v>991.53549999999996</v>
       </c>
       <c r="P37" s="3">
-        <v>46.889676469999998</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q37" s="3">
-        <v>-91.115238669999997</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45145.498043981483</v>
+        <v>45145.498263888891</v>
       </c>
       <c r="B38" s="3">
-        <v>9.8321769999999997</v>
+        <v>9.8430959999999992</v>
       </c>
       <c r="C38" s="3">
-        <v>6.9038409999999999</v>
+        <v>8.1318129999999993</v>
       </c>
       <c r="D38" s="3">
-        <v>77.770970000000005</v>
+        <v>70.516109999999998</v>
       </c>
       <c r="E38" s="3">
-        <v>99.410669999999996</v>
+        <v>98.730289999999997</v>
       </c>
       <c r="F38" s="3">
-        <v>4.6327569999999998E-2</v>
+        <v>4.5757140000000002E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>0.9993493</v>
+        <v>0.99973469999999998</v>
       </c>
       <c r="H38" s="3">
-        <v>6.4616930000000003E-2</v>
+        <v>6.4175120000000002E-2</v>
       </c>
       <c r="I38" s="3">
-        <v>0.26843689999999998</v>
+        <v>0.71428000000000003</v>
       </c>
       <c r="J38" s="3">
-        <v>13.533519999999999</v>
+        <v>10.20918</v>
       </c>
       <c r="K38" s="3">
-        <v>4.3830419999999997</v>
+        <v>11.626950000000001</v>
       </c>
       <c r="L38" s="3">
-        <v>10.713509999999999</v>
+        <v>27.60004</v>
       </c>
       <c r="M38" s="3">
-        <v>3.081585</v>
+        <v>8.2290770000000002</v>
       </c>
       <c r="N38" s="3">
-        <v>0.96564190000000005</v>
+        <v>0.8748264</v>
       </c>
       <c r="O38" s="3">
-        <v>991.56790000000001</v>
+        <v>991.53629999999998</v>
       </c>
       <c r="P38" s="3">
-        <v>46.889676469999998</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q38" s="3">
-        <v>-91.115238669999997</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45145.498055555552</v>
+        <v>45145.49827546296</v>
       </c>
       <c r="B39" s="3">
-        <v>9.8322990000000008</v>
+        <v>9.8371410000000008</v>
       </c>
       <c r="C39" s="3">
-        <v>6.9274420000000001</v>
+        <v>8.1374610000000001</v>
       </c>
       <c r="D39" s="3">
-        <v>77.549210000000002</v>
+        <v>70.490799999999993</v>
       </c>
       <c r="E39" s="3">
-        <v>99.310419999999993</v>
+        <v>98.756100000000004</v>
       </c>
       <c r="F39" s="3">
-        <v>4.6276860000000003E-2</v>
+        <v>4.5767530000000001E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>0.99935569999999996</v>
+        <v>0.99973690000000004</v>
       </c>
       <c r="H39" s="3">
-        <v>6.4551780000000003E-2</v>
+        <v>6.4191780000000004E-2</v>
       </c>
       <c r="I39" s="3">
-        <v>0.26581120000000003</v>
+        <v>0.71319650000000001</v>
       </c>
       <c r="J39" s="3">
-        <v>13.47893</v>
+        <v>10.18756</v>
       </c>
       <c r="K39" s="3">
-        <v>4.4611419999999997</v>
+        <v>11.72456</v>
       </c>
       <c r="L39" s="3">
-        <v>10.893549999999999</v>
+        <v>27.776009999999999</v>
       </c>
       <c r="M39" s="3">
-        <v>3.136495</v>
+        <v>8.2826740000000001</v>
       </c>
       <c r="N39" s="3">
-        <v>0.96482619999999997</v>
+        <v>0.87425390000000003</v>
       </c>
       <c r="O39" s="3">
-        <v>991.56870000000004</v>
+        <v>991.53700000000003</v>
       </c>
       <c r="P39" s="3">
-        <v>46.889682479999998</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q39" s="3">
-        <v>-91.115222860000003</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45145.498067129629</v>
+        <v>45145.498287037037</v>
       </c>
       <c r="B40" s="3">
-        <v>9.9212059999999997</v>
+        <v>9.7722409999999993</v>
       </c>
       <c r="C40" s="3">
-        <v>7.0042530000000003</v>
+        <v>8.7579630000000002</v>
       </c>
       <c r="D40" s="3">
-        <v>75.654259999999994</v>
+        <v>70.445049999999995</v>
       </c>
       <c r="E40" s="3">
-        <v>98.299449999999993</v>
+        <v>98.950739999999996</v>
       </c>
       <c r="F40" s="3">
-        <v>4.5757920000000001E-2</v>
+        <v>4.585214E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>0.999475</v>
+        <v>0.99974540000000001</v>
       </c>
       <c r="H40" s="3">
-        <v>6.3921220000000001E-2</v>
+        <v>6.4546759999999995E-2</v>
       </c>
       <c r="I40" s="3">
-        <v>0.44815349999999998</v>
+        <v>0.78815279999999999</v>
       </c>
       <c r="J40" s="3">
-        <v>12.91315</v>
+        <v>9.9369730000000001</v>
       </c>
       <c r="K40" s="3">
-        <v>5.7940670000000001</v>
+        <v>12.38463</v>
       </c>
       <c r="L40" s="3">
-        <v>13.96547</v>
+        <v>31.181640000000002</v>
       </c>
       <c r="M40" s="3">
-        <v>4.0736350000000003</v>
+        <v>9.3190360000000005</v>
       </c>
       <c r="N40" s="3">
-        <v>0.94884100000000005</v>
+        <v>0.86650130000000003</v>
       </c>
       <c r="O40" s="3">
-        <v>991.55160000000001</v>
+        <v>991.51250000000005</v>
       </c>
       <c r="P40" s="3">
-        <v>46.889682479999998</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q40" s="3">
-        <v>-91.115222860000003</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45145.498078703706</v>
+        <v>45145.498298611114</v>
       </c>
       <c r="B41" s="3">
-        <v>9.9265740000000005</v>
+        <v>9.7649830000000009</v>
       </c>
       <c r="C41" s="3">
-        <v>7.0151560000000002</v>
+        <v>8.787623</v>
       </c>
       <c r="D41" s="3">
-        <v>75.461759999999998</v>
+        <v>70.434269999999998</v>
       </c>
       <c r="E41" s="3">
-        <v>98.215860000000006</v>
+        <v>98.969120000000004</v>
       </c>
       <c r="F41" s="3">
-        <v>4.5715119999999998E-2</v>
+        <v>4.5859839999999999E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>0.99948349999999997</v>
+        <v>0.99974660000000004</v>
       </c>
       <c r="H41" s="3">
-        <v>6.3868320000000006E-2</v>
+        <v>6.4570370000000002E-2</v>
       </c>
       <c r="I41" s="3">
-        <v>0.45715319999999998</v>
+        <v>0.79190360000000004</v>
       </c>
       <c r="J41" s="3">
-        <v>12.86149</v>
+        <v>9.9194829999999996</v>
       </c>
       <c r="K41" s="3">
-        <v>5.8817310000000003</v>
+        <v>12.45234</v>
       </c>
       <c r="L41" s="3">
-        <v>14.167590000000001</v>
+        <v>31.398990000000001</v>
       </c>
       <c r="M41" s="3">
-        <v>4.1352679999999999</v>
+        <v>9.3851820000000004</v>
       </c>
       <c r="N41" s="3">
-        <v>0.94764269999999995</v>
+        <v>0.86593319999999996</v>
       </c>
       <c r="O41" s="3">
-        <v>991.55100000000004</v>
+        <v>991.51189999999997</v>
       </c>
       <c r="P41" s="3">
-        <v>46.889682479999998</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q41" s="3">
-        <v>-91.115222860000003</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45145.498090277775</v>
+        <v>45145.498310185183</v>
       </c>
       <c r="B42" s="3">
-        <v>9.9319430000000004</v>
+        <v>9.7577269999999992</v>
       </c>
       <c r="C42" s="3">
-        <v>7.0260590000000001</v>
+        <v>8.8172840000000008</v>
       </c>
       <c r="D42" s="3">
-        <v>75.269260000000003</v>
+        <v>70.423479999999998</v>
       </c>
       <c r="E42" s="3">
-        <v>98.132260000000002</v>
+        <v>98.987489999999994</v>
       </c>
       <c r="F42" s="3">
-        <v>4.5672320000000002E-2</v>
+        <v>4.5867539999999998E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>0.99949209999999999</v>
+        <v>0.99974770000000002</v>
       </c>
       <c r="H42" s="3">
-        <v>6.3815419999999998E-2</v>
+        <v>6.4593970000000001E-2</v>
       </c>
       <c r="I42" s="3">
-        <v>0.46615299999999998</v>
+        <v>0.79565439999999998</v>
       </c>
       <c r="J42" s="3">
-        <v>12.80982</v>
+        <v>9.9019940000000002</v>
       </c>
       <c r="K42" s="3">
-        <v>5.9693940000000003</v>
+        <v>12.520049999999999</v>
       </c>
       <c r="L42" s="3">
-        <v>14.369719999999999</v>
+        <v>31.616340000000001</v>
       </c>
       <c r="M42" s="3">
-        <v>4.1969019999999997</v>
+        <v>9.4513289999999994</v>
       </c>
       <c r="N42" s="3">
-        <v>0.94644450000000002</v>
+        <v>0.8653651</v>
       </c>
       <c r="O42" s="3">
-        <v>991.55050000000006</v>
+        <v>991.51130000000001</v>
       </c>
       <c r="P42" s="3">
-        <v>46.889686810000001</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q42" s="3">
-        <v>-91.115208670000001</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45145.498101851852</v>
+        <v>45145.49832175926</v>
       </c>
       <c r="B43" s="3">
-        <v>9.9732280000000006</v>
+        <v>10.05012</v>
       </c>
       <c r="C43" s="3">
-        <v>7.1818759999999999</v>
+        <v>8.9289970000000007</v>
       </c>
       <c r="D43" s="3">
-        <v>73.525899999999993</v>
+        <v>70.185040000000001</v>
       </c>
       <c r="E43" s="3">
-        <v>97.832999999999998</v>
+        <v>99.223150000000004</v>
       </c>
       <c r="F43" s="3">
-        <v>4.5476040000000002E-2</v>
+        <v>4.5960710000000002E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>0.99954180000000004</v>
+        <v>0.99976600000000004</v>
       </c>
       <c r="H43" s="3">
-        <v>6.3595009999999993E-2</v>
+        <v>6.4525059999999995E-2</v>
       </c>
       <c r="I43" s="3">
-        <v>0.45985359999999997</v>
+        <v>0.93599520000000003</v>
       </c>
       <c r="J43" s="3">
-        <v>12.427479999999999</v>
+        <v>9.7585840000000008</v>
       </c>
       <c r="K43" s="3">
-        <v>6.6637760000000004</v>
+        <v>14.0245</v>
       </c>
       <c r="L43" s="3">
-        <v>15.969580000000001</v>
+        <v>33.214970000000001</v>
       </c>
       <c r="M43" s="3">
-        <v>4.6851010000000004</v>
+        <v>9.9379410000000004</v>
       </c>
       <c r="N43" s="3">
-        <v>0.94653830000000005</v>
+        <v>0.8729789</v>
       </c>
       <c r="O43" s="3">
-        <v>991.55020000000002</v>
+        <v>991.54470000000003</v>
       </c>
       <c r="P43" s="3">
-        <v>46.889686810000001</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q43" s="3">
-        <v>-91.115208670000001</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45145.498113425929</v>
+        <v>45145.498333333337</v>
       </c>
       <c r="B44" s="3">
-        <v>9.9773859999999992</v>
+        <v>10.06381</v>
       </c>
       <c r="C44" s="3">
-        <v>7.1918699999999998</v>
+        <v>8.9481230000000007</v>
       </c>
       <c r="D44" s="3">
-        <v>73.39161</v>
+        <v>70.171719999999993</v>
       </c>
       <c r="E44" s="3">
-        <v>97.793620000000004</v>
+        <v>99.239509999999996</v>
       </c>
       <c r="F44" s="3">
-        <v>4.5453630000000002E-2</v>
+        <v>4.5967340000000002E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>0.99954719999999997</v>
+        <v>0.99976710000000002</v>
       </c>
       <c r="H44" s="3">
-        <v>6.3568689999999997E-2</v>
+        <v>6.4529139999999999E-2</v>
       </c>
       <c r="I44" s="3">
-        <v>0.46369460000000001</v>
+        <v>0.94477330000000004</v>
       </c>
       <c r="J44" s="3">
-        <v>12.39453</v>
+        <v>9.7456870000000002</v>
       </c>
       <c r="K44" s="3">
-        <v>6.7310939999999997</v>
+        <v>14.116099999999999</v>
       </c>
       <c r="L44" s="3">
-        <v>16.124700000000001</v>
+        <v>33.37086</v>
       </c>
       <c r="M44" s="3">
-        <v>4.7324299999999999</v>
+        <v>9.9853889999999996</v>
       </c>
       <c r="N44" s="3">
-        <v>0.94617459999999998</v>
+        <v>0.87320149999999996</v>
       </c>
       <c r="O44" s="3">
-        <v>991.5498</v>
+        <v>991.54600000000005</v>
       </c>
       <c r="P44" s="3">
-        <v>46.889686810000001</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q44" s="3">
-        <v>-91.115208670000001</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45145.498124999998</v>
+        <v>45145.498344907406</v>
       </c>
       <c r="B45" s="3">
-        <v>9.9815439999999995</v>
+        <v>10.07751</v>
       </c>
       <c r="C45" s="3">
-        <v>7.2018649999999997</v>
+        <v>8.9672490000000007</v>
       </c>
       <c r="D45" s="3">
-        <v>73.257320000000007</v>
+        <v>70.1584</v>
       </c>
       <c r="E45" s="3">
-        <v>97.754260000000002</v>
+        <v>99.255859999999998</v>
       </c>
       <c r="F45" s="3">
-        <v>4.5431220000000001E-2</v>
+        <v>4.5973970000000003E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>0.99955249999999995</v>
+        <v>0.9997682</v>
       </c>
       <c r="H45" s="3">
-        <v>6.3542370000000001E-2</v>
+        <v>6.4533229999999997E-2</v>
       </c>
       <c r="I45" s="3">
-        <v>0.4675356</v>
+        <v>0.95355140000000005</v>
       </c>
       <c r="J45" s="3">
-        <v>12.36158</v>
+        <v>9.7327890000000004</v>
       </c>
       <c r="K45" s="3">
-        <v>6.7984119999999999</v>
+        <v>14.207700000000001</v>
       </c>
       <c r="L45" s="3">
-        <v>16.279820000000001</v>
+        <v>33.526760000000003</v>
       </c>
       <c r="M45" s="3">
-        <v>4.7797599999999996</v>
+        <v>10.03284</v>
       </c>
       <c r="N45" s="3">
-        <v>0.94581090000000001</v>
+        <v>0.87342430000000004</v>
       </c>
       <c r="O45" s="3">
-        <v>991.54939999999999</v>
+        <v>991.5471</v>
       </c>
       <c r="P45" s="3">
-        <v>46.889686810000001</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q45" s="3">
-        <v>-91.115208670000001</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45145.498136574075</v>
+        <v>45145.498356481483</v>
       </c>
       <c r="B46" s="3">
-        <v>9.9723500000000005</v>
+        <v>9.9736940000000001</v>
       </c>
       <c r="C46" s="3">
-        <v>7.4368509999999999</v>
+        <v>9.1125749999999996</v>
       </c>
       <c r="D46" s="3">
-        <v>72.619879999999995</v>
+        <v>70.019850000000005</v>
       </c>
       <c r="E46" s="3">
-        <v>97.770570000000006</v>
+        <v>99.376810000000006</v>
       </c>
       <c r="F46" s="3">
-        <v>4.5414700000000002E-2</v>
+        <v>4.6020709999999999E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>0.99962629999999997</v>
+        <v>0.99977800000000006</v>
       </c>
       <c r="H46" s="3">
-        <v>6.3447959999999998E-2</v>
+        <v>6.4604900000000007E-2</v>
       </c>
       <c r="I46" s="3">
-        <v>0.58106449999999998</v>
+        <v>0.92930800000000002</v>
       </c>
       <c r="J46" s="3">
-        <v>11.594989999999999</v>
+        <v>9.5436879999999995</v>
       </c>
       <c r="K46" s="3">
-        <v>8.0836839999999999</v>
+        <v>14.85792</v>
       </c>
       <c r="L46" s="3">
-        <v>19.250640000000001</v>
+        <v>34.959319999999998</v>
       </c>
       <c r="M46" s="3">
-        <v>5.6833960000000001</v>
+        <v>10.92291</v>
       </c>
       <c r="N46" s="3">
-        <v>0.92340719999999998</v>
+        <v>0.89650700000000005</v>
       </c>
       <c r="O46" s="3">
-        <v>991.57479999999998</v>
+        <v>991.59050000000002</v>
       </c>
       <c r="P46" s="3">
-        <v>46.889686810000001</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q46" s="3">
-        <v>-91.115208670000001</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45145.498148148145</v>
+        <v>45145.498368055552</v>
       </c>
       <c r="B47" s="3">
-        <v>9.9728010000000005</v>
+        <v>9.9743099999999991</v>
       </c>
       <c r="C47" s="3">
-        <v>7.4522560000000002</v>
+        <v>9.1224019999999992</v>
       </c>
       <c r="D47" s="3">
-        <v>72.548680000000004</v>
+        <v>70.007649999999998</v>
       </c>
       <c r="E47" s="3">
-        <v>97.764279999999999</v>
+        <v>99.388030000000001</v>
       </c>
       <c r="F47" s="3">
-        <v>4.5409310000000001E-2</v>
+        <v>4.6025089999999998E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99963120000000005</v>
+        <v>0.99977890000000003</v>
       </c>
       <c r="H47" s="3">
-        <v>6.3437980000000005E-2</v>
+        <v>6.4607230000000002E-2</v>
       </c>
       <c r="I47" s="3">
-        <v>0.58682140000000005</v>
+        <v>0.93094500000000002</v>
       </c>
       <c r="J47" s="3">
-        <v>11.547230000000001</v>
+        <v>9.5308589999999995</v>
       </c>
       <c r="K47" s="3">
-        <v>8.164866</v>
+        <v>14.92309</v>
       </c>
       <c r="L47" s="3">
-        <v>19.43817</v>
+        <v>35.067100000000003</v>
       </c>
       <c r="M47" s="3">
-        <v>5.7404719999999996</v>
+        <v>10.97935</v>
       </c>
       <c r="N47" s="3">
-        <v>0.92225199999999996</v>
+        <v>0.89786509999999997</v>
       </c>
       <c r="O47" s="3">
-        <v>991.5761</v>
+        <v>991.59339999999997</v>
       </c>
       <c r="P47" s="3">
-        <v>46.889686810000001</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q47" s="3">
-        <v>-91.115208670000001</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>45145.498159722221</v>
+        <v>45145.498379629629</v>
       </c>
       <c r="B48" s="3">
-        <v>9.9732520000000005</v>
+        <v>9.9749250000000007</v>
       </c>
       <c r="C48" s="3">
-        <v>7.4676600000000004</v>
+        <v>9.1322290000000006</v>
       </c>
       <c r="D48" s="3">
-        <v>72.477469999999997</v>
+        <v>69.995450000000005</v>
       </c>
       <c r="E48" s="3">
-        <v>97.757999999999996</v>
+        <v>99.399249999999995</v>
       </c>
       <c r="F48" s="3">
-        <v>4.540392E-2</v>
+        <v>4.6029470000000003E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>0.99963610000000003</v>
+        <v>0.9997798</v>
       </c>
       <c r="H48" s="3">
-        <v>6.3427990000000004E-2</v>
+        <v>6.4609559999999996E-2</v>
       </c>
       <c r="I48" s="3">
-        <v>0.5925783</v>
+        <v>0.93258200000000002</v>
       </c>
       <c r="J48" s="3">
-        <v>11.49948</v>
+        <v>9.5180299999999995</v>
       </c>
       <c r="K48" s="3">
-        <v>8.2460489999999993</v>
+        <v>14.98827</v>
       </c>
       <c r="L48" s="3">
-        <v>19.625710000000002</v>
+        <v>35.174869999999999</v>
       </c>
       <c r="M48" s="3">
-        <v>5.7975490000000001</v>
+        <v>11.03579</v>
       </c>
       <c r="N48" s="3">
-        <v>0.92109680000000005</v>
+        <v>0.89922329999999995</v>
       </c>
       <c r="O48" s="3">
-        <v>991.57740000000001</v>
+        <v>991.59640000000002</v>
       </c>
       <c r="P48" s="3">
-        <v>46.889688640000003</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q48" s="3">
-        <v>-91.11519509</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>45145.498171296298</v>
+        <v>45145.498391203706</v>
       </c>
       <c r="B49" s="3">
-        <v>9.8724290000000003</v>
+        <v>9.9755409999999998</v>
       </c>
       <c r="C49" s="3">
-        <v>7.6152860000000002</v>
+        <v>9.1420560000000002</v>
       </c>
       <c r="D49" s="3">
-        <v>71.433239999999998</v>
+        <v>69.983249999999998</v>
       </c>
       <c r="E49" s="3">
-        <v>97.970590000000001</v>
+        <v>99.410470000000004</v>
       </c>
       <c r="F49" s="3">
-        <v>4.545718E-2</v>
+        <v>4.6033850000000001E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>0.9996659</v>
+        <v>0.99978069999999997</v>
       </c>
       <c r="H49" s="3">
-        <v>6.3665970000000002E-2</v>
+        <v>6.4611890000000005E-2</v>
       </c>
       <c r="I49" s="3">
-        <v>0.73145380000000004</v>
+        <v>0.93421889999999996</v>
       </c>
       <c r="J49" s="3">
-        <v>11.10955</v>
+        <v>9.5052009999999996</v>
       </c>
       <c r="K49" s="3">
-        <v>8.8966259999999995</v>
+        <v>15.05345</v>
       </c>
       <c r="L49" s="3">
-        <v>21.12133</v>
+        <v>35.282640000000001</v>
       </c>
       <c r="M49" s="3">
-        <v>6.2549510000000001</v>
+        <v>11.092230000000001</v>
       </c>
       <c r="N49" s="3">
-        <v>0.89761230000000003</v>
+        <v>0.90058139999999998</v>
       </c>
       <c r="O49" s="3">
-        <v>991.55319999999995</v>
+        <v>991.59929999999997</v>
       </c>
       <c r="P49" s="3">
-        <v>46.889688640000003</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q49" s="3">
-        <v>-91.11519509</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>45145.498182870368</v>
+        <v>45145.498402777775</v>
       </c>
       <c r="B50" s="3">
-        <v>9.866873</v>
+        <v>10.113939999999999</v>
       </c>
       <c r="C50" s="3">
-        <v>7.6277309999999998</v>
+        <v>9.4131470000000004</v>
       </c>
       <c r="D50" s="3">
-        <v>71.365520000000004</v>
+        <v>69.901240000000001</v>
       </c>
       <c r="E50" s="3">
-        <v>97.982169999999996</v>
+        <v>99.816310000000001</v>
       </c>
       <c r="F50" s="3">
-        <v>4.5459670000000001E-2</v>
+        <v>4.6209479999999997E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>0.99966900000000003</v>
+        <v>0.99979620000000002</v>
       </c>
       <c r="H50" s="3">
-        <v>6.3676759999999999E-2</v>
+        <v>6.4880599999999997E-2</v>
       </c>
       <c r="I50" s="3">
-        <v>0.741147</v>
+        <v>1.057337</v>
       </c>
       <c r="J50" s="3">
-        <v>11.073689999999999</v>
+        <v>9.3905630000000002</v>
       </c>
       <c r="K50" s="3">
-        <v>8.9566549999999996</v>
+        <v>16.268879999999999</v>
       </c>
       <c r="L50" s="3">
-        <v>21.259650000000001</v>
+        <v>38.14087</v>
       </c>
       <c r="M50" s="3">
-        <v>6.2971550000000001</v>
+        <v>11.48931</v>
       </c>
       <c r="N50" s="3">
-        <v>0.89591410000000005</v>
+        <v>0.89246979999999998</v>
       </c>
       <c r="O50" s="3">
-        <v>991.55240000000003</v>
+        <v>991.55439999999999</v>
       </c>
       <c r="P50" s="3">
-        <v>46.889688640000003</v>
+        <v>46.889689420000003</v>
       </c>
       <c r="Q50" s="3">
-        <v>-91.11519509</v>
+        <v>-91.115180949999996</v>
       </c>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>45145.498194444444</v>
+        <v>45145.498414351852</v>
       </c>
       <c r="B51" s="3">
-        <v>9.8613169999999997</v>
+        <v>10.11867</v>
       </c>
       <c r="C51" s="3">
-        <v>7.6401770000000004</v>
+        <v>9.4300470000000001</v>
       </c>
       <c r="D51" s="3">
-        <v>71.297790000000006</v>
+        <v>69.893919999999994</v>
       </c>
       <c r="E51" s="3">
-        <v>97.993740000000003</v>
+        <v>99.839399999999998</v>
       </c>
       <c r="F51" s="3">
-        <v>4.5462170000000003E-2</v>
+        <v>4.6219349999999999E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>0.99967200000000001</v>
+        <v>0.99979720000000005</v>
       </c>
       <c r="H51" s="3">
-        <v>6.3687549999999996E-2</v>
+        <v>6.4895610000000006E-2</v>
       </c>
       <c r="I51" s="3">
-        <v>0.75084010000000001</v>
+        <v>1.063021</v>
       </c>
       <c r="J51" s="3">
-        <v>11.037839999999999</v>
+        <v>9.3805169999999993</v>
       </c>
       <c r="K51" s="3">
-        <v>9.0166819999999994</v>
+        <v>16.344899999999999</v>
       </c>
       <c r="L51" s="3">
-        <v>21.397960000000001</v>
+        <v>38.316690000000001</v>
       </c>
       <c r="M51" s="3">
-        <v>6.3393579999999998</v>
+        <v>11.52936</v>
       </c>
       <c r="N51" s="3">
-        <v>0.89421589999999995</v>
+        <v>0.89258340000000003</v>
       </c>
       <c r="O51" s="3">
-        <v>991.55160000000001</v>
+        <v>991.55319999999995</v>
       </c>
       <c r="P51" s="3">
         <v>46.889689420000003</v>
@@ -2845,1032 +3749,6 @@
         <v>-91.115180949999996</v>
       </c>
       <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>45145.498206018521</v>
-      </c>
-      <c r="B52" s="3">
-        <v>9.8557600000000001</v>
-      </c>
-      <c r="C52" s="3">
-        <v>7.652622</v>
-      </c>
-      <c r="D52" s="3">
-        <v>71.230059999999995</v>
-      </c>
-      <c r="E52" s="3">
-        <v>98.005330000000001</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4.5464669999999999E-2</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0.99967499999999998</v>
-      </c>
-      <c r="H52" s="3">
-        <v>6.3698340000000006E-2</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0.76053329999999997</v>
-      </c>
-      <c r="J52" s="3">
-        <v>11.00198</v>
-      </c>
-      <c r="K52" s="3">
-        <v>9.0767100000000003</v>
-      </c>
-      <c r="L52" s="3">
-        <v>21.536280000000001</v>
-      </c>
-      <c r="M52" s="3">
-        <v>6.3815619999999997</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0.89251769999999997</v>
-      </c>
-      <c r="O52" s="3">
-        <v>991.55079999999998</v>
-      </c>
-      <c r="P52" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>45145.498217592591</v>
-      </c>
-      <c r="B53" s="3">
-        <v>10.032</v>
-      </c>
-      <c r="C53" s="3">
-        <v>8.2026140000000005</v>
-      </c>
-      <c r="D53" s="3">
-        <v>70.988650000000007</v>
-      </c>
-      <c r="E53" s="3">
-        <v>98.280630000000002</v>
-      </c>
-      <c r="F53" s="3">
-        <v>4.5577579999999999E-2</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0.99969680000000005</v>
-      </c>
-      <c r="H53" s="3">
-        <v>6.3884150000000001E-2</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0.71886499999999998</v>
-      </c>
-      <c r="J53" s="3">
-        <v>10.48953</v>
-      </c>
-      <c r="K53" s="3">
-        <v>9.8421839999999996</v>
-      </c>
-      <c r="L53" s="3">
-        <v>25.159659999999999</v>
-      </c>
-      <c r="M53" s="3">
-        <v>7.4859739999999997</v>
-      </c>
-      <c r="N53" s="3">
-        <v>0.884606</v>
-      </c>
-      <c r="O53" s="3">
-        <v>991.5059</v>
-      </c>
-      <c r="P53" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>45145.498229166667</v>
-      </c>
-      <c r="B54" s="3">
-        <v>10.039</v>
-      </c>
-      <c r="C54" s="3">
-        <v>8.2347249999999992</v>
-      </c>
-      <c r="D54" s="3">
-        <v>70.952839999999995</v>
-      </c>
-      <c r="E54" s="3">
-        <v>98.299840000000003</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4.5584699999999999E-2</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0.99969859999999999</v>
-      </c>
-      <c r="H54" s="3">
-        <v>6.3899259999999999E-2</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0.71975979999999995</v>
-      </c>
-      <c r="J54" s="3">
-        <v>10.454090000000001</v>
-      </c>
-      <c r="K54" s="3">
-        <v>9.8966069999999995</v>
-      </c>
-      <c r="L54" s="3">
-        <v>25.382580000000001</v>
-      </c>
-      <c r="M54" s="3">
-        <v>7.5539540000000001</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0.88367039999999997</v>
-      </c>
-      <c r="O54" s="3">
-        <v>991.50300000000004</v>
-      </c>
-      <c r="P54" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>45145.498240740744</v>
-      </c>
-      <c r="B55" s="3">
-        <v>10.04599</v>
-      </c>
-      <c r="C55" s="3">
-        <v>8.2668350000000004</v>
-      </c>
-      <c r="D55" s="3">
-        <v>70.917019999999994</v>
-      </c>
-      <c r="E55" s="3">
-        <v>98.319050000000004</v>
-      </c>
-      <c r="F55" s="3">
-        <v>4.559183E-2</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0.99970040000000004</v>
-      </c>
-      <c r="H55" s="3">
-        <v>6.3914360000000003E-2</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0.72065440000000003</v>
-      </c>
-      <c r="J55" s="3">
-        <v>10.41865</v>
-      </c>
-      <c r="K55" s="3">
-        <v>9.9510319999999997</v>
-      </c>
-      <c r="L55" s="3">
-        <v>25.605499999999999</v>
-      </c>
-      <c r="M55" s="3">
-        <v>7.6219349999999997</v>
-      </c>
-      <c r="N55" s="3">
-        <v>0.88273469999999998</v>
-      </c>
-      <c r="O55" s="3">
-        <v>991.50009999999997</v>
-      </c>
-      <c r="P55" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>45145.498252314814</v>
-      </c>
-      <c r="B56" s="3">
-        <v>9.8490500000000001</v>
-      </c>
-      <c r="C56" s="3">
-        <v>8.1261650000000003</v>
-      </c>
-      <c r="D56" s="3">
-        <v>70.541430000000005</v>
-      </c>
-      <c r="E56" s="3">
-        <v>98.704480000000004</v>
-      </c>
-      <c r="F56" s="3">
-        <v>4.5746740000000001E-2</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0.99973259999999997</v>
-      </c>
-      <c r="H56" s="3">
-        <v>6.4158469999999995E-2</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0.71536359999999999</v>
-      </c>
-      <c r="J56" s="3">
-        <v>10.23081</v>
-      </c>
-      <c r="K56" s="3">
-        <v>11.52933</v>
-      </c>
-      <c r="L56" s="3">
-        <v>27.42408</v>
-      </c>
-      <c r="M56" s="3">
-        <v>8.1754809999999996</v>
-      </c>
-      <c r="N56" s="3">
-        <v>0.87539889999999998</v>
-      </c>
-      <c r="O56" s="3">
-        <v>991.53549999999996</v>
-      </c>
-      <c r="P56" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>45145.498263888891</v>
-      </c>
-      <c r="B57" s="3">
-        <v>9.8430959999999992</v>
-      </c>
-      <c r="C57" s="3">
-        <v>8.1318129999999993</v>
-      </c>
-      <c r="D57" s="3">
-        <v>70.516109999999998</v>
-      </c>
-      <c r="E57" s="3">
-        <v>98.730289999999997</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4.5757140000000002E-2</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0.99973469999999998</v>
-      </c>
-      <c r="H57" s="3">
-        <v>6.4175120000000002E-2</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0.71428000000000003</v>
-      </c>
-      <c r="J57" s="3">
-        <v>10.20918</v>
-      </c>
-      <c r="K57" s="3">
-        <v>11.626950000000001</v>
-      </c>
-      <c r="L57" s="3">
-        <v>27.60004</v>
-      </c>
-      <c r="M57" s="3">
-        <v>8.2290770000000002</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0.8748264</v>
-      </c>
-      <c r="O57" s="3">
-        <v>991.53629999999998</v>
-      </c>
-      <c r="P57" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>45145.49827546296</v>
-      </c>
-      <c r="B58" s="3">
-        <v>9.8371410000000008</v>
-      </c>
-      <c r="C58" s="3">
-        <v>8.1374610000000001</v>
-      </c>
-      <c r="D58" s="3">
-        <v>70.490799999999993</v>
-      </c>
-      <c r="E58" s="3">
-        <v>98.756100000000004</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4.5767530000000001E-2</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0.99973690000000004</v>
-      </c>
-      <c r="H58" s="3">
-        <v>6.4191780000000004E-2</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0.71319650000000001</v>
-      </c>
-      <c r="J58" s="3">
-        <v>10.18756</v>
-      </c>
-      <c r="K58" s="3">
-        <v>11.72456</v>
-      </c>
-      <c r="L58" s="3">
-        <v>27.776009999999999</v>
-      </c>
-      <c r="M58" s="3">
-        <v>8.2826740000000001</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0.87425390000000003</v>
-      </c>
-      <c r="O58" s="3">
-        <v>991.53700000000003</v>
-      </c>
-      <c r="P58" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R58" s="3"/>
-    </row>
-    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>45145.498287037037</v>
-      </c>
-      <c r="B59" s="3">
-        <v>9.7722409999999993</v>
-      </c>
-      <c r="C59" s="3">
-        <v>8.7579630000000002</v>
-      </c>
-      <c r="D59" s="3">
-        <v>70.445049999999995</v>
-      </c>
-      <c r="E59" s="3">
-        <v>98.950739999999996</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4.585214E-2</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0.99974540000000001</v>
-      </c>
-      <c r="H59" s="3">
-        <v>6.4546759999999995E-2</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0.78815279999999999</v>
-      </c>
-      <c r="J59" s="3">
-        <v>9.9369730000000001</v>
-      </c>
-      <c r="K59" s="3">
-        <v>12.38463</v>
-      </c>
-      <c r="L59" s="3">
-        <v>31.181640000000002</v>
-      </c>
-      <c r="M59" s="3">
-        <v>9.3190360000000005</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0.86650130000000003</v>
-      </c>
-      <c r="O59" s="3">
-        <v>991.51250000000005</v>
-      </c>
-      <c r="P59" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R59" s="3"/>
-    </row>
-    <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>45145.498298611114</v>
-      </c>
-      <c r="B60" s="3">
-        <v>9.7649830000000009</v>
-      </c>
-      <c r="C60" s="3">
-        <v>8.787623</v>
-      </c>
-      <c r="D60" s="3">
-        <v>70.434269999999998</v>
-      </c>
-      <c r="E60" s="3">
-        <v>98.969120000000004</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4.5859839999999999E-2</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0.99974660000000004</v>
-      </c>
-      <c r="H60" s="3">
-        <v>6.4570370000000002E-2</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0.79190360000000004</v>
-      </c>
-      <c r="J60" s="3">
-        <v>9.9194829999999996</v>
-      </c>
-      <c r="K60" s="3">
-        <v>12.45234</v>
-      </c>
-      <c r="L60" s="3">
-        <v>31.398990000000001</v>
-      </c>
-      <c r="M60" s="3">
-        <v>9.3851820000000004</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0.86593319999999996</v>
-      </c>
-      <c r="O60" s="3">
-        <v>991.51189999999997</v>
-      </c>
-      <c r="P60" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>45145.498310185183</v>
-      </c>
-      <c r="B61" s="3">
-        <v>9.7577269999999992</v>
-      </c>
-      <c r="C61" s="3">
-        <v>8.8172840000000008</v>
-      </c>
-      <c r="D61" s="3">
-        <v>70.423479999999998</v>
-      </c>
-      <c r="E61" s="3">
-        <v>98.987489999999994</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4.5867539999999998E-2</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0.99974770000000002</v>
-      </c>
-      <c r="H61" s="3">
-        <v>6.4593970000000001E-2</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0.79565439999999998</v>
-      </c>
-      <c r="J61" s="3">
-        <v>9.9019940000000002</v>
-      </c>
-      <c r="K61" s="3">
-        <v>12.520049999999999</v>
-      </c>
-      <c r="L61" s="3">
-        <v>31.616340000000001</v>
-      </c>
-      <c r="M61" s="3">
-        <v>9.4513289999999994</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0.8653651</v>
-      </c>
-      <c r="O61" s="3">
-        <v>991.51130000000001</v>
-      </c>
-      <c r="P61" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>45145.49832175926</v>
-      </c>
-      <c r="B62" s="3">
-        <v>10.05012</v>
-      </c>
-      <c r="C62" s="3">
-        <v>8.9289970000000007</v>
-      </c>
-      <c r="D62" s="3">
-        <v>70.185040000000001</v>
-      </c>
-      <c r="E62" s="3">
-        <v>99.223150000000004</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4.5960710000000002E-2</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0.99976600000000004</v>
-      </c>
-      <c r="H62" s="3">
-        <v>6.4525059999999995E-2</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0.93599520000000003</v>
-      </c>
-      <c r="J62" s="3">
-        <v>9.7585840000000008</v>
-      </c>
-      <c r="K62" s="3">
-        <v>14.0245</v>
-      </c>
-      <c r="L62" s="3">
-        <v>33.214970000000001</v>
-      </c>
-      <c r="M62" s="3">
-        <v>9.9379410000000004</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0.8729789</v>
-      </c>
-      <c r="O62" s="3">
-        <v>991.54470000000003</v>
-      </c>
-      <c r="P62" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>45145.498333333337</v>
-      </c>
-      <c r="B63" s="3">
-        <v>10.06381</v>
-      </c>
-      <c r="C63" s="3">
-        <v>8.9481230000000007</v>
-      </c>
-      <c r="D63" s="3">
-        <v>70.171719999999993</v>
-      </c>
-      <c r="E63" s="3">
-        <v>99.239509999999996</v>
-      </c>
-      <c r="F63" s="3">
-        <v>4.5967340000000002E-2</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0.99976710000000002</v>
-      </c>
-      <c r="H63" s="3">
-        <v>6.4529139999999999E-2</v>
-      </c>
-      <c r="I63" s="3">
-        <v>0.94477330000000004</v>
-      </c>
-      <c r="J63" s="3">
-        <v>9.7456870000000002</v>
-      </c>
-      <c r="K63" s="3">
-        <v>14.116099999999999</v>
-      </c>
-      <c r="L63" s="3">
-        <v>33.37086</v>
-      </c>
-      <c r="M63" s="3">
-        <v>9.9853889999999996</v>
-      </c>
-      <c r="N63" s="3">
-        <v>0.87320149999999996</v>
-      </c>
-      <c r="O63" s="3">
-        <v>991.54600000000005</v>
-      </c>
-      <c r="P63" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>45145.498344907406</v>
-      </c>
-      <c r="B64" s="3">
-        <v>10.07751</v>
-      </c>
-      <c r="C64" s="3">
-        <v>8.9672490000000007</v>
-      </c>
-      <c r="D64" s="3">
-        <v>70.1584</v>
-      </c>
-      <c r="E64" s="3">
-        <v>99.255859999999998</v>
-      </c>
-      <c r="F64" s="3">
-        <v>4.5973970000000003E-2</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0.9997682</v>
-      </c>
-      <c r="H64" s="3">
-        <v>6.4533229999999997E-2</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0.95355140000000005</v>
-      </c>
-      <c r="J64" s="3">
-        <v>9.7327890000000004</v>
-      </c>
-      <c r="K64" s="3">
-        <v>14.207700000000001</v>
-      </c>
-      <c r="L64" s="3">
-        <v>33.526760000000003</v>
-      </c>
-      <c r="M64" s="3">
-        <v>10.03284</v>
-      </c>
-      <c r="N64" s="3">
-        <v>0.87342430000000004</v>
-      </c>
-      <c r="O64" s="3">
-        <v>991.5471</v>
-      </c>
-      <c r="P64" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>45145.498356481483</v>
-      </c>
-      <c r="B65" s="3">
-        <v>9.9736940000000001</v>
-      </c>
-      <c r="C65" s="3">
-        <v>9.1125749999999996</v>
-      </c>
-      <c r="D65" s="3">
-        <v>70.019850000000005</v>
-      </c>
-      <c r="E65" s="3">
-        <v>99.376810000000006</v>
-      </c>
-      <c r="F65" s="3">
-        <v>4.6020709999999999E-2</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0.99977800000000006</v>
-      </c>
-      <c r="H65" s="3">
-        <v>6.4604900000000007E-2</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0.92930800000000002</v>
-      </c>
-      <c r="J65" s="3">
-        <v>9.5436879999999995</v>
-      </c>
-      <c r="K65" s="3">
-        <v>14.85792</v>
-      </c>
-      <c r="L65" s="3">
-        <v>34.959319999999998</v>
-      </c>
-      <c r="M65" s="3">
-        <v>10.92291</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0.89650700000000005</v>
-      </c>
-      <c r="O65" s="3">
-        <v>991.59050000000002</v>
-      </c>
-      <c r="P65" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>45145.498368055552</v>
-      </c>
-      <c r="B66" s="3">
-        <v>9.9743099999999991</v>
-      </c>
-      <c r="C66" s="3">
-        <v>9.1224019999999992</v>
-      </c>
-      <c r="D66" s="3">
-        <v>70.007649999999998</v>
-      </c>
-      <c r="E66" s="3">
-        <v>99.388030000000001</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4.6025089999999998E-2</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0.99977890000000003</v>
-      </c>
-      <c r="H66" s="3">
-        <v>6.4607230000000002E-2</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0.93094500000000002</v>
-      </c>
-      <c r="J66" s="3">
-        <v>9.5308589999999995</v>
-      </c>
-      <c r="K66" s="3">
-        <v>14.92309</v>
-      </c>
-      <c r="L66" s="3">
-        <v>35.067100000000003</v>
-      </c>
-      <c r="M66" s="3">
-        <v>10.97935</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0.89786509999999997</v>
-      </c>
-      <c r="O66" s="3">
-        <v>991.59339999999997</v>
-      </c>
-      <c r="P66" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>45145.498379629629</v>
-      </c>
-      <c r="B67" s="3">
-        <v>9.9749250000000007</v>
-      </c>
-      <c r="C67" s="3">
-        <v>9.1322290000000006</v>
-      </c>
-      <c r="D67" s="3">
-        <v>69.995450000000005</v>
-      </c>
-      <c r="E67" s="3">
-        <v>99.399249999999995</v>
-      </c>
-      <c r="F67" s="3">
-        <v>4.6029470000000003E-2</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0.9997798</v>
-      </c>
-      <c r="H67" s="3">
-        <v>6.4609559999999996E-2</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0.93258200000000002</v>
-      </c>
-      <c r="J67" s="3">
-        <v>9.5180299999999995</v>
-      </c>
-      <c r="K67" s="3">
-        <v>14.98827</v>
-      </c>
-      <c r="L67" s="3">
-        <v>35.174869999999999</v>
-      </c>
-      <c r="M67" s="3">
-        <v>11.03579</v>
-      </c>
-      <c r="N67" s="3">
-        <v>0.89922329999999995</v>
-      </c>
-      <c r="O67" s="3">
-        <v>991.59640000000002</v>
-      </c>
-      <c r="P67" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>45145.498391203706</v>
-      </c>
-      <c r="B68" s="3">
-        <v>9.9755409999999998</v>
-      </c>
-      <c r="C68" s="3">
-        <v>9.1420560000000002</v>
-      </c>
-      <c r="D68" s="3">
-        <v>69.983249999999998</v>
-      </c>
-      <c r="E68" s="3">
-        <v>99.410470000000004</v>
-      </c>
-      <c r="F68" s="3">
-        <v>4.6033850000000001E-2</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0.99978069999999997</v>
-      </c>
-      <c r="H68" s="3">
-        <v>6.4611890000000005E-2</v>
-      </c>
-      <c r="I68" s="3">
-        <v>0.93421889999999996</v>
-      </c>
-      <c r="J68" s="3">
-        <v>9.5052009999999996</v>
-      </c>
-      <c r="K68" s="3">
-        <v>15.05345</v>
-      </c>
-      <c r="L68" s="3">
-        <v>35.282640000000001</v>
-      </c>
-      <c r="M68" s="3">
-        <v>11.092230000000001</v>
-      </c>
-      <c r="N68" s="3">
-        <v>0.90058139999999998</v>
-      </c>
-      <c r="O68" s="3">
-        <v>991.59929999999997</v>
-      </c>
-      <c r="P68" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>45145.498402777775</v>
-      </c>
-      <c r="B69" s="3">
-        <v>10.113939999999999</v>
-      </c>
-      <c r="C69" s="3">
-        <v>9.4131470000000004</v>
-      </c>
-      <c r="D69" s="3">
-        <v>69.901240000000001</v>
-      </c>
-      <c r="E69" s="3">
-        <v>99.816310000000001</v>
-      </c>
-      <c r="F69" s="3">
-        <v>4.6209479999999997E-2</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0.99979620000000002</v>
-      </c>
-      <c r="H69" s="3">
-        <v>6.4880599999999997E-2</v>
-      </c>
-      <c r="I69" s="3">
-        <v>1.057337</v>
-      </c>
-      <c r="J69" s="3">
-        <v>9.3905630000000002</v>
-      </c>
-      <c r="K69" s="3">
-        <v>16.268879999999999</v>
-      </c>
-      <c r="L69" s="3">
-        <v>38.14087</v>
-      </c>
-      <c r="M69" s="3">
-        <v>11.48931</v>
-      </c>
-      <c r="N69" s="3">
-        <v>0.89246979999999998</v>
-      </c>
-      <c r="O69" s="3">
-        <v>991.55439999999999</v>
-      </c>
-      <c r="P69" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>45145.498414351852</v>
-      </c>
-      <c r="B70" s="3">
-        <v>10.11867</v>
-      </c>
-      <c r="C70" s="3">
-        <v>9.4300470000000001</v>
-      </c>
-      <c r="D70" s="3">
-        <v>69.893919999999994</v>
-      </c>
-      <c r="E70" s="3">
-        <v>99.839399999999998</v>
-      </c>
-      <c r="F70" s="3">
-        <v>4.6219349999999999E-2</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0.99979720000000005</v>
-      </c>
-      <c r="H70" s="3">
-        <v>6.4895610000000006E-2</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1.063021</v>
-      </c>
-      <c r="J70" s="3">
-        <v>9.3805169999999993</v>
-      </c>
-      <c r="K70" s="3">
-        <v>16.344899999999999</v>
-      </c>
-      <c r="L70" s="3">
-        <v>38.316690000000001</v>
-      </c>
-      <c r="M70" s="3">
-        <v>11.52936</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0.89258340000000003</v>
-      </c>
-      <c r="O70" s="3">
-        <v>991.55319999999995</v>
-      </c>
-      <c r="P70" s="3">
-        <v>46.889689420000003</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>-91.115180949999996</v>
-      </c>
-      <c r="R70" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
